--- a/biology/Médecine/Le_Resto_d'après/Le_Resto_d'après.xlsx
+++ b/biology/Médecine/Le_Resto_d'après/Le_Resto_d'après.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Resto_d%27apr%C3%A8s</t>
+          <t>Le_Resto_d'après</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Resto d'après est une émission de télévision documentaire québécoise diffusée depuis le 8 novembre 2022 sur la plateforme Mordu.ca, une entité de Radio-Canada[1],[2]. Elle est réalisée par Bruno Florin et met en vedette des restaurateurs québécois dont Simon Mathys du Mastard[3] et Normand Laprise du Toqué!. Elle est produite par Picbois Productions.
+Le Resto d'après est une émission de télévision documentaire québécoise diffusée depuis le 8 novembre 2022 sur la plateforme Mordu.ca, une entité de Radio-Canada,. Elle est réalisée par Bruno Florin et met en vedette des restaurateurs québécois dont Simon Mathys du Mastard et Normand Laprise du Toqué!. Elle est produite par Picbois Productions.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Resto_d%27apr%C3%A8s</t>
+          <t>Le_Resto_d'après</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série propose une incursion dans le domaine de la restauration indépendante au Québec à la suite des chamboulements provoqués par la pandémie. Des restaurateurs partagent les changements qui se sont opérés dans leur industrie et dans leurs cuisines.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Resto_d%27apr%C3%A8s</t>
+          <t>Le_Resto_d'après</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste des épisodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vivre ou mourir
 À emporter pour rester
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Resto_d%27apr%C3%A8s</t>
+          <t>Le_Resto_d'après</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Festivals</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Festival TV de Luchon (2023)
 Rockie Awards (2023)
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Resto_d%27apr%C3%A8s</t>
+          <t>Le_Resto_d'après</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Diffusion : Mordu.ca
 Idée originale, recherche, scénarisation et réalisation : Bruno Florin
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Resto_d%27apr%C3%A8s</t>
+          <t>Le_Resto_d'après</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,20 +672,22 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Minh Phat Tu, chef - Mui Mui[4] et Anémone[5]
-Simon Mathys, chef - Mastard[6]
-Luca Cianciulli, chef - Moccione[7]
-Camilo Lapointe-Nascimento, chef - Menu Extra[8]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Minh Phat Tu, chef - Mui Mui et Anémone
+Simon Mathys, chef - Mastard
+Luca Cianciulli, chef - Moccione
+Camilo Lapointe-Nascimento, chef - Menu Extra
 Francis Blais, chef - Menu Extra
-Kim Côté, chef - Côté Est[9]
-Massimo Piedimonte, chef - Cabaret l'Enfer[10]
-Anita Feng, chef épicière - J'ai Feng[11]
-Antonin Mousseau-Rivard, chef - Le Mousso[12]
-Morgane Muszynski, serveuse, sommelière et gestionnaire - Denise[13]
-Julien Masia, chef - Arvi[14]
-Charles-Antoine Crête, chef - Montréal Plaza[15]</t>
+Kim Côté, chef - Côté Est
+Massimo Piedimonte, chef - Cabaret l'Enfer
+Anita Feng, chef épicière - J'ai Feng
+Antonin Mousseau-Rivard, chef - Le Mousso
+Morgane Muszynski, serveuse, sommelière et gestionnaire - Denise
+Julien Masia, chef - Arvi
+Charles-Antoine Crête, chef - Montréal Plaza</t>
         </is>
       </c>
     </row>
